--- a/performance-tests.xlsx
+++ b/performance-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r-projects\pop_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2494BA5F-26DD-4719-B85B-1B013E6B993D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBEA2F9-0264-4618-B4FB-2513B50E753F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{6CFDEDB0-74B0-411B-99AA-BF7D94A3DA1F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1" xr2:uid="{6CFDEDB0-74B0-411B-99AA-BF7D94A3DA1F}"/>
   </bookViews>
   <sheets>
     <sheet name="postN0" sheetId="1" r:id="rId1"/>
@@ -2810,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D2A547-2D9B-4127-8E50-175AE0C5D071}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
@@ -3004,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E1259-840B-4A69-8254-FAC3184F3FA8}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,6 +3113,9 @@
       <c r="C13">
         <v>2240.1</v>
       </c>
+      <c r="D13">
+        <v>2867.6</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -3125,7 +3128,7 @@
         <v>2238</v>
       </c>
       <c r="D14">
-        <v>2915</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>

--- a/performance-tests.xlsx
+++ b/performance-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r-projects\pop_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBEA2F9-0264-4618-B4FB-2513B50E753F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6643B37F-6A89-4EA2-A6F2-F44F57CE72B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1" xr2:uid="{6CFDEDB0-74B0-411B-99AA-BF7D94A3DA1F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Number of Threads</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>PSOCK-WIN XEON</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Time(sec)</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>postN0!$A$3:$A$7</c:f>
+              <c:f>postN0!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -219,7 +225,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>postN0!$B$3:$B$7</c:f>
+              <c:f>postN0!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -273,7 +279,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>postN0!$A$3:$A$7</c:f>
+              <c:f>postN0!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -297,7 +303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>postN0!$C$3:$C$7</c:f>
+              <c:f>postN0!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -351,7 +357,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>postN0!$A$3:$A$7</c:f>
+              <c:f>postN0!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -375,7 +381,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>postN0!$D$3:$D$7</c:f>
+              <c:f>postN0!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -814,7 +820,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>postN0!$A$9:$A$14</c:f>
+              <c:f>postN0!$A$10:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -841,7 +847,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>postN0!$B$9:$B$14</c:f>
+              <c:f>postN0!$B$10:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -898,7 +904,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>postN0!$A$9:$A$14</c:f>
+              <c:f>postN0!$A$10:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -925,7 +931,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>postN0!$C$9:$C$14</c:f>
+              <c:f>postN0!$C$10:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -982,7 +988,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>postN0!$A$9:$A$14</c:f>
+              <c:f>postN0!$A$10:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1009,7 +1015,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>postN0!$D$9:$D$14</c:f>
+              <c:f>postN0!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2440,13 +2446,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2476,13 +2482,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2808,10 +2814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D2A547-2D9B-4127-8E50-175AE0C5D071}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2836,161 +2842,183 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1.89</v>
-      </c>
-      <c r="C3">
-        <v>1.97</v>
-      </c>
-      <c r="D3">
-        <v>1.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2.4900000000000002</v>
+        <v>1.89</v>
       </c>
       <c r="C4">
-        <v>2.77</v>
+        <v>1.97</v>
       </c>
       <c r="D4">
-        <v>2.66</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2.78</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C5">
-        <v>3.18</v>
+        <v>2.77</v>
       </c>
       <c r="D5">
-        <v>3.06</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="C6">
-        <v>3.38</v>
+        <v>3.18</v>
       </c>
       <c r="D6">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="C7">
         <v>3.38</v>
       </c>
       <c r="D7">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2.9</v>
+      </c>
+      <c r="C8">
+        <v>3.38</v>
+      </c>
+      <c r="D8">
         <v>3.19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>82.3</v>
-      </c>
-      <c r="C9">
-        <v>78.5</v>
-      </c>
-      <c r="D9">
-        <v>106.3</v>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>43.4</v>
+        <v>82.3</v>
       </c>
       <c r="C10">
-        <v>39.9</v>
+        <v>78.5</v>
       </c>
       <c r="D10">
-        <v>53.2</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>33.1</v>
+        <v>43.4</v>
       </c>
       <c r="C11">
-        <v>28.3</v>
+        <v>39.9</v>
       </c>
       <c r="D11">
-        <v>39.9</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>29.6</v>
+        <v>33.1</v>
       </c>
       <c r="C12">
-        <v>24.7</v>
+        <v>28.3</v>
       </c>
       <c r="D12">
-        <v>34.700000000000003</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C13">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="D13">
-        <v>33.9</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>28.4</v>
+        <v>29.5</v>
       </c>
       <c r="C14">
         <v>23.2</v>
       </c>
       <c r="D14">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>28.4</v>
+      </c>
+      <c r="C15">
+        <v>23.2</v>
+      </c>
+      <c r="D15">
         <v>33.299999999999997</v>
       </c>
     </row>
@@ -3002,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E1259-840B-4A69-8254-FAC3184F3FA8}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3030,104 +3058,132 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.0299999999999998</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2.19</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2.25</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2.25</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>5040.3999999999996</v>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3059.6</v>
+        <v>5040.3999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3160</v>
       </c>
       <c r="C11">
-        <v>2478.4</v>
+        <v>3059.6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>2300.1999999999998</v>
+        <v>2478.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2240.1</v>
+        <v>2300.1999999999998</v>
       </c>
       <c r="D13">
-        <v>2867.6</v>
+        <v>2938.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2240.1</v>
+      </c>
+      <c r="D14">
+        <v>2867.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2425.8000000000002</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>2238</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>2835</v>
       </c>
     </row>

--- a/performance-tests.xlsx
+++ b/performance-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r-projects\pop_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6643B37F-6A89-4EA2-A6F2-F44F57CE72B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26049A34-C8DA-4D07-B182-D54D9A5D5C1C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1" xr2:uid="{6CFDEDB0-74B0-411B-99AA-BF7D94A3DA1F}"/>
   </bookViews>
@@ -79,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,6 +1355,1262 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup for postNt</a:t>
+            </a:r>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>postNt!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSOCK-MAC OS - I7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>postNt!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>postNt!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6170886075949367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.923004553494148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0450634329851525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1027941236986134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1065215598977653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4951-4F70-A584-4C30047498E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>postNt!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FORK-MAC OS I7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>postNt!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>postNt!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4951-4F70-A584-4C30047498E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>postNt!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSOCK-WIN XEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>postNt!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>postNt!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.603114367966501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8369519582558629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0845669559298963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1361068489329056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1606701940035276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4951-4F70-A584-4C30047498E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1343878815"/>
+        <c:axId val="1693467071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1343878815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ro-RO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1693467071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1693467071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ro-RO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343878815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution time for postNt</a:t>
+            </a:r>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>postNt!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSOCK-MAC OS - I7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>postNt!$A$10:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>postNt!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2657.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2498.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2430.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2425.8000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13EC-49F8-9E07-65343B3F0047}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>postNt!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FORK-MAC OS I7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>postNt!$A$10:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>postNt!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5040.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3059.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2478.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2300.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2240.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13EC-49F8-9E07-65343B3F0047}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>postNt!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSOCK-WIN XEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>postNt!$A$10:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>postNt!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6125.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3334.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2938.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2867.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-13EC-49F8-9E07-65343B3F0047}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1754209263"/>
+        <c:axId val="1800679119"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1754209263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ro-RO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800679119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1800679119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ro-RO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754209263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1434,6 +2691,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1938,6 +3275,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2497,6 +4840,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95007799-023A-4355-99A7-C8BE3B8AB720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FA8AA5-A91E-450B-9B61-08E3FF3E7D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43714C08-B3D4-4E2D-A7C4-469D4536125C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,10 +5450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E1259-840B-4A69-8254-FAC3184F3FA8}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3043,7 +5463,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +5477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -3068,52 +5488,82 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>1.6170886075949367</v>
+      </c>
       <c r="C4">
         <v>1.65</v>
       </c>
+      <c r="D4" s="1">
+        <v>1.603114367966501</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>1.923004553494148</v>
+      </c>
       <c r="C5">
         <v>2.0299999999999998</v>
       </c>
+      <c r="D5" s="1">
+        <v>1.8369519582558629</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>2.0450634329851525</v>
+      </c>
       <c r="C6">
         <v>2.19</v>
       </c>
+      <c r="D6" s="1">
+        <v>2.0845669559298963</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>2.1027941236986134</v>
+      </c>
       <c r="C7">
         <v>2.25</v>
       </c>
+      <c r="D7" s="1">
+        <v>2.1361068489329056</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8" s="1">
+        <v>2.1065215598977653</v>
+      </c>
       <c r="C8">
         <v>2.25</v>
       </c>
+      <c r="D8" s="1">
+        <v>2.1606701940035276</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -3124,15 +5574,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
+      <c r="B10">
+        <v>5110</v>
+      </c>
       <c r="C10">
         <v>5040.3999999999996</v>
       </c>
+      <c r="D10">
+        <v>6125.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3142,38 +5598,61 @@
       <c r="C11">
         <v>3059.6</v>
       </c>
+      <c r="D11">
+        <v>3821</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
+      <c r="B12">
+        <v>2657.3</v>
+      </c>
       <c r="C12">
         <v>2478.4</v>
       </c>
+      <c r="D12">
+        <v>3334.6</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
+      <c r="B13">
+        <v>2498.6999999999998</v>
+      </c>
       <c r="C13">
         <v>2300.1999999999998</v>
       </c>
       <c r="D13">
         <v>2938.5</v>
       </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
+      <c r="B14">
+        <v>2430.1</v>
+      </c>
       <c r="C14">
         <v>2240.1</v>
       </c>
       <c r="D14">
         <v>2867.6</v>
       </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -3186,8 +5665,12 @@
       <c r="D15">
         <v>2835</v>
       </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/performance-tests.xlsx
+++ b/performance-tests.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r-projects\pop_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\r-projects\pop_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26049A34-C8DA-4D07-B182-D54D9A5D5C1C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1" xr2:uid="{6CFDEDB0-74B0-411B-99AA-BF7D94A3DA1F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="postN0" sheetId="1" r:id="rId1"/>
     <sheet name="postNt" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,12 +58,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,7 +171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -482,7 +488,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -520,7 +526,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1303785023"/>
@@ -603,7 +609,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -635,7 +641,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1296743919"/>
@@ -677,7 +683,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -707,7 +713,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -784,7 +790,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1119,7 +1125,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1157,7 +1163,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1406213503"/>
@@ -1240,7 +1246,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1272,7 +1278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1341909551"/>
@@ -1314,7 +1320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1344,7 +1350,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1396,6 +1402,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1421,7 +1428,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1713,6 +1720,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1738,7 +1746,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1776,7 +1784,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1693467071"/>
@@ -1834,6 +1842,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1859,7 +1868,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1891,7 +1900,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1343878815"/>
@@ -1908,6 +1917,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1933,7 +1943,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1963,7 +1973,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2015,6 +2025,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2040,7 +2051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2283,7 +2294,7 @@
                   <c:v>3821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3334.6</c:v>
+                  <c:v>3128.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2938.5</c:v>
@@ -2350,6 +2361,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2375,7 +2387,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2413,7 +2425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1800679119"/>
@@ -2471,6 +2483,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2496,7 +2509,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2528,7 +2541,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1754209263"/>
@@ -2545,6 +2558,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2570,7 +2584,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2600,7 +2614,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5233,21 +5247,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D2A547-2D9B-4127-8E50-175AE0C5D071}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5261,7 +5275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -5272,12 +5286,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5291,7 +5305,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5305,7 +5319,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5319,7 +5333,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5333,7 +5347,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5347,7 +5361,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -5358,7 +5372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5372,7 +5386,7 @@
         <v>106.3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5386,7 +5400,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5400,7 +5414,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -5414,7 +5428,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -5428,7 +5442,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -5449,21 +5463,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E1259-840B-4A69-8254-FAC3184F3FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5477,7 +5491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -5488,12 +5502,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5507,7 +5521,7 @@
         <v>1.603114367966501</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5521,7 +5535,7 @@
         <v>1.8369519582558629</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5535,7 +5549,7 @@
         <v>2.0845669559298963</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5549,7 +5563,7 @@
         <v>2.1361068489329056</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5563,7 +5577,7 @@
         <v>2.1606701940035276</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -5574,7 +5588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5588,7 +5602,7 @@
         <v>6125.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5604,7 +5618,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5614,13 +5628,13 @@
       <c r="C12">
         <v>2478.4</v>
       </c>
-      <c r="D12">
-        <v>3334.6</v>
+      <c r="D12" s="2">
+        <v>3128.6</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -5630,13 +5644,13 @@
       <c r="C13">
         <v>2300.1999999999998</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>2938.5</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -5646,13 +5660,13 @@
       <c r="C14">
         <v>2240.1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>2867.6</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -5662,7 +5676,7 @@
       <c r="C15">
         <v>2238</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>2835</v>
       </c>
       <c r="F15" s="1"/>
